--- a/SaccoOps/Uploads/Accountslog.xlsx
+++ b/SaccoOps/Uploads/Accountslog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIXIE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23194014-DD34-4C74-B474-B3F1AD98437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF731CC2-723D-49F8-82D7-6673B4790C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="6015" windowWidth="21600" windowHeight="12975" xr2:uid="{098347F8-7303-4002-AF2B-00E9D67684B3}"/>
+    <workbookView xWindow="5790" yWindow="3195" windowWidth="21600" windowHeight="12975" xr2:uid="{098347F8-7303-4002-AF2B-00E9D67684B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Alex Mike</t>
   </si>
   <si>
-    <t>f4622675-384d-4d29-b6d4-8928ae8c4ff4</t>
-  </si>
-  <si>
     <t>Bob Robertson Kent</t>
   </si>
   <si>
@@ -75,13 +72,10 @@
     <t>Diego Simeone</t>
   </si>
   <si>
-    <t>b54bc9a8-68d3-4f84-a4c5-2faaa84a5d68</t>
-  </si>
-  <si>
-    <t>f735134e-79cd-4a74-8001-95dbc4f1a2e2</t>
-  </si>
-  <si>
-    <t>f79fa8ec-8d11-416e-8ff4-18865837aca1</t>
+    <t>e578583f-ed67-4d69-bbef-b8ef785e7e04</t>
+  </si>
+  <si>
+    <t>9200f795-5500-4898-8c4d-7daf8242aecc</t>
   </si>
 </sst>
 </file>
@@ -445,7 +439,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,8 +468,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>100</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>390600</v>
@@ -488,8 +482,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>101</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
         <v>247000</v>
@@ -503,7 +497,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>5790300</v>
@@ -517,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>4590124</v>
@@ -531,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>9907546</v>
@@ -545,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>690300</v>
@@ -556,10 +550,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>6007</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>129000</v>
@@ -570,10 +564,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>6008</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>4290400</v>
@@ -584,10 +578,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>6009</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>904900</v>
@@ -598,10 +592,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>6010</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <v>56225800</v>
@@ -612,10 +606,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>6011</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>89000000</v>
